--- a/data/sale2025122315296397.xlsx
+++ b/data/sale2025122315296397.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1551">
   <si>
     <t>Data da Venda</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Entidade Financeira</t>
   </si>
   <si>
-    <t>2025-12-19</t>
+    <t>2025-12-19 00:00:00</t>
   </si>
   <si>
     <t>79-NN-39</t>
@@ -110,7 +110,7 @@
     <t>Nuno Gomes</t>
   </si>
   <si>
-    <t>2025-12-15</t>
+    <t>2025-12-15 00:00:00</t>
   </si>
   <si>
     <t>BD-96-AT</t>
@@ -131,7 +131,7 @@
     <t>2017-08-02</t>
   </si>
   <si>
-    <t>2025-12-11</t>
+    <t>2025-12-11 00:00:00</t>
   </si>
   <si>
     <t>71-LG-62</t>
@@ -155,7 +155,7 @@
     <t>2011-01-18</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-01 00:00:00</t>
   </si>
   <si>
     <t>70-SC-57</t>
@@ -197,7 +197,7 @@
     <t>2007-07-04</t>
   </si>
   <si>
-    <t>2025-11-25</t>
+    <t>2025-11-25 00:00:00</t>
   </si>
   <si>
     <t>04-MF-79</t>
@@ -221,7 +221,7 @@
     <t>Outro</t>
   </si>
   <si>
-    <t>2025-11-22</t>
+    <t>2025-11-22 00:00:00</t>
   </si>
   <si>
     <t>37-JX-45</t>
@@ -266,7 +266,7 @@
     <t>2020-07-17</t>
   </si>
   <si>
-    <t>2025-11-10</t>
+    <t>2025-11-10 00:00:00</t>
   </si>
   <si>
     <t>BX-10-JV</t>
@@ -287,7 +287,7 @@
     <t>2019-01-09</t>
   </si>
   <si>
-    <t>2025-11-06</t>
+    <t>2025-11-06 00:00:00</t>
   </si>
   <si>
     <t>25-PC-58</t>
@@ -326,7 +326,7 @@
     <t>2015-08-17</t>
   </si>
   <si>
-    <t>2025-11-05</t>
+    <t>2025-11-05 00:00:00</t>
   </si>
   <si>
     <t>BD-80-RG</t>
@@ -344,7 +344,7 @@
     <t>2014-04-30</t>
   </si>
   <si>
-    <t>2025-11-03</t>
+    <t>2025-11-03 00:00:00</t>
   </si>
   <si>
     <t>09-VH-28</t>
@@ -362,7 +362,7 @@
     <t>2018-08-23</t>
   </si>
   <si>
-    <t>2025-10-28</t>
+    <t>2025-10-28 00:00:00</t>
   </si>
   <si>
     <t>25-JL-01</t>
@@ -413,7 +413,7 @@
     <t>Cetelem</t>
   </si>
   <si>
-    <t>2025-10-26</t>
+    <t>2025-10-26 00:00:00</t>
   </si>
   <si>
     <t>BA-30-AX</t>
@@ -431,7 +431,7 @@
     <t>2013-03-07</t>
   </si>
   <si>
-    <t>2025-10-25</t>
+    <t>2025-10-25 00:00:00</t>
   </si>
   <si>
     <t>AX-41-IU</t>
@@ -452,7 +452,7 @@
     <t>Credibom</t>
   </si>
   <si>
-    <t>2025-10-10</t>
+    <t>2025-10-10 00:00:00</t>
   </si>
   <si>
     <t>BP-51-RA</t>
@@ -476,7 +476,7 @@
     <t>321 Crédito</t>
   </si>
   <si>
-    <t>2025-10-08</t>
+    <t>2025-10-08 00:00:00</t>
   </si>
   <si>
     <t>42-FB-81</t>
@@ -491,7 +491,7 @@
     <t>2008-01-08</t>
   </si>
   <si>
-    <t>2025-10-04</t>
+    <t>2025-10-04 00:00:00</t>
   </si>
   <si>
     <t>67-FM-52</t>
@@ -506,7 +506,7 @@
     <t>2008-04-01</t>
   </si>
   <si>
-    <t>2025-09-25</t>
+    <t>2025-09-25 00:00:00</t>
   </si>
   <si>
     <t>43-OQ-06</t>
@@ -521,7 +521,7 @@
     <t>Maria do Rosário de Barros Caridade</t>
   </si>
   <si>
-    <t>2025-09-17</t>
+    <t>2025-09-17 00:00:00</t>
   </si>
   <si>
     <t>AV-92-PU</t>
@@ -536,7 +536,7 @@
     <t>2010-04-01</t>
   </si>
   <si>
-    <t>2025-09-15</t>
+    <t>2025-09-15 00:00:00</t>
   </si>
   <si>
     <t>43-49-JM</t>
@@ -554,7 +554,7 @@
     <t>1997-01-31</t>
   </si>
   <si>
-    <t>2025-09-14</t>
+    <t>2025-09-14 00:00:00</t>
   </si>
   <si>
     <t>AL-63-MS</t>
@@ -569,7 +569,7 @@
     <t>2018-02-13</t>
   </si>
   <si>
-    <t>2025-09-13</t>
+    <t>2025-09-13 00:00:00</t>
   </si>
   <si>
     <t>BV-00-RM</t>
@@ -587,7 +587,7 @@
     <t>2014-04-22</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-09-12 00:00:00</t>
   </si>
   <si>
     <t>54-26-UC</t>
@@ -602,7 +602,7 @@
     <t>2002-09-19</t>
   </si>
   <si>
-    <t>2025-09-05</t>
+    <t>2025-09-05 00:00:00</t>
   </si>
   <si>
     <t>05-ZM-01</t>
@@ -629,7 +629,7 @@
     <t>2016-06-30</t>
   </si>
   <si>
-    <t>2025-09-01</t>
+    <t>2025-09-01 00:00:00</t>
   </si>
   <si>
     <t>AL-66-DD</t>
@@ -659,7 +659,7 @@
     <t>2023-03-06</t>
   </si>
   <si>
-    <t>2025-08-30</t>
+    <t>2025-08-30 00:00:00</t>
   </si>
   <si>
     <t>34-EF-25</t>
@@ -677,7 +677,7 @@
     <t>2008-08-31</t>
   </si>
   <si>
-    <t>2025-08-29</t>
+    <t>2025-08-29 00:00:00</t>
   </si>
   <si>
     <t>87-22-TM</t>
@@ -698,7 +698,7 @@
     <t>2002-05-14</t>
   </si>
   <si>
-    <t>2025-08-26</t>
+    <t>2025-08-26 00:00:00</t>
   </si>
   <si>
     <t>96-64-VJ</t>
@@ -716,7 +716,7 @@
     <t>2003-08-27</t>
   </si>
   <si>
-    <t>2025-08-24</t>
+    <t>2025-08-24 00:00:00</t>
   </si>
   <si>
     <t>84-JL-46</t>
@@ -737,7 +737,7 @@
     <t>2010-07-07</t>
   </si>
   <si>
-    <t>2025-08-23</t>
+    <t>2025-08-23 00:00:00</t>
   </si>
   <si>
     <t>BS-20-TI</t>
@@ -758,7 +758,7 @@
     <t>2015-09-25</t>
   </si>
   <si>
-    <t>2025-08-21</t>
+    <t>2025-08-21 00:00:00</t>
   </si>
   <si>
     <t>AX-23-ZR</t>
@@ -776,7 +776,7 @@
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>2025-08-18</t>
+    <t>2025-08-18 00:00:00</t>
   </si>
   <si>
     <t>97-IJ-76</t>
@@ -794,7 +794,7 @@
     <t>2009-11-17</t>
   </si>
   <si>
-    <t>2025-08-16</t>
+    <t>2025-08-16 00:00:00</t>
   </si>
   <si>
     <t>00-UG-07</t>
@@ -824,7 +824,7 @@
     <t>2017-06-30</t>
   </si>
   <si>
-    <t>2025-08-13</t>
+    <t>2025-08-13 00:00:00</t>
   </si>
   <si>
     <t>22-SA-94</t>
@@ -839,7 +839,7 @@
     <t>2016-10-19</t>
   </si>
   <si>
-    <t>2025-08-09</t>
+    <t>2025-08-09 00:00:00</t>
   </si>
   <si>
     <t>BQ-63-OS</t>
@@ -857,7 +857,7 @@
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>2025-08-06</t>
+    <t>2025-08-06 00:00:00</t>
   </si>
   <si>
     <t>30-IH-47</t>
@@ -875,7 +875,7 @@
     <t>2009-10-20</t>
   </si>
   <si>
-    <t>2025-08-02</t>
+    <t>2025-08-02 00:00:00</t>
   </si>
   <si>
     <t>90-JX-87</t>
@@ -893,7 +893,7 @@
     <t>2010-11-08</t>
   </si>
   <si>
-    <t>2025-07-28</t>
+    <t>2025-07-28 00:00:00</t>
   </si>
   <si>
     <t>57-SA-97</t>
@@ -923,7 +923,7 @@
     <t>2015-10-01</t>
   </si>
   <si>
-    <t>2025-07-21</t>
+    <t>2025-07-21 00:00:00</t>
   </si>
   <si>
     <t>01-UM-20</t>
@@ -938,7 +938,7 @@
     <t>2018-03-31</t>
   </si>
   <si>
-    <t>2025-07-14</t>
+    <t>2025-07-14 00:00:00</t>
   </si>
   <si>
     <t>97-DE-08</t>
@@ -956,7 +956,7 @@
     <t>2007-03-27</t>
   </si>
   <si>
-    <t>2025-07-11</t>
+    <t>2025-07-11 00:00:00</t>
   </si>
   <si>
     <t>BA-73-AS</t>
@@ -968,7 +968,7 @@
     <t>2012-01-05</t>
   </si>
   <si>
-    <t>2025-07-08</t>
+    <t>2025-07-08 00:00:00</t>
   </si>
   <si>
     <t>84-NN-36</t>
@@ -983,7 +983,7 @@
     <t>2013-02-28</t>
   </si>
   <si>
-    <t>2025-07-05</t>
+    <t>2025-07-05 00:00:00</t>
   </si>
   <si>
     <t>00-TA-85</t>
@@ -1004,7 +1004,7 @@
     <t>2017-05-19</t>
   </si>
   <si>
-    <t>2025-07-02</t>
+    <t>2025-07-02 00:00:00</t>
   </si>
   <si>
     <t>BG-44-JU</t>
@@ -1019,7 +1019,7 @@
     <t>2018-10-18</t>
   </si>
   <si>
-    <t>2025-06-25</t>
+    <t>2025-06-25 00:00:00</t>
   </si>
   <si>
     <t>BQ-42-TA</t>
@@ -1040,7 +1040,7 @@
     <t>Santander Consumer</t>
   </si>
   <si>
-    <t>2025-06-23</t>
+    <t>2025-06-23 00:00:00</t>
   </si>
   <si>
     <t>55-QE-58</t>
@@ -1055,7 +1055,7 @@
     <t>2015-07-01</t>
   </si>
   <si>
-    <t>2025-06-21</t>
+    <t>2025-06-21 00:00:00</t>
   </si>
   <si>
     <t>BS-31-IB</t>
@@ -1076,7 +1076,7 @@
     <t>2015-06-11</t>
   </si>
   <si>
-    <t>2025-06-14</t>
+    <t>2025-06-14 00:00:00</t>
   </si>
   <si>
     <t>49-NQ-73</t>
@@ -1091,10 +1091,10 @@
     <t>2013-04-26</t>
   </si>
   <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-06-03</t>
+    <t>2025-06-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2025-06-03 00:00:00</t>
   </si>
   <si>
     <t>53-53-VV</t>
@@ -1109,7 +1109,7 @@
     <t>2003-12-30</t>
   </si>
   <si>
-    <t>2025-05-31</t>
+    <t>2025-05-31 00:00:00</t>
   </si>
   <si>
     <t>73-TJ-12</t>
@@ -1121,7 +1121,7 @@
     <t>José Pedro de Sousa Ferreira</t>
   </si>
   <si>
-    <t>2025-05-24</t>
+    <t>2025-05-24 00:00:00</t>
   </si>
   <si>
     <t>AN-56-RJ</t>
@@ -1136,7 +1136,7 @@
     <t>2016-02-22</t>
   </si>
   <si>
-    <t>2025-05-23</t>
+    <t>2025-05-23 00:00:00</t>
   </si>
   <si>
     <t>20-IC-07</t>
@@ -1169,7 +1169,7 @@
     <t>2015-07-27</t>
   </si>
   <si>
-    <t>2025-05-19</t>
+    <t>2025-05-19 00:00:00</t>
   </si>
   <si>
     <t>43-FJ-94</t>
@@ -1199,7 +1199,7 @@
     <t>2019-07-10</t>
   </si>
   <si>
-    <t>2025-05-17</t>
+    <t>2025-05-17 00:00:00</t>
   </si>
   <si>
     <t>41-MF-46</t>
@@ -1217,7 +1217,7 @@
     <t>2011-09-01</t>
   </si>
   <si>
-    <t>2025-05-10</t>
+    <t>2025-05-10 00:00:00</t>
   </si>
   <si>
     <t>77-MT-07</t>
@@ -1235,7 +1235,7 @@
     <t>2012-04-10</t>
   </si>
   <si>
-    <t>2025-05-07</t>
+    <t>2025-05-07 00:00:00</t>
   </si>
   <si>
     <t>AU-83-QX</t>
@@ -1247,7 +1247,7 @@
     <t>Pedro Luis Figueiredo Cardos</t>
   </si>
   <si>
-    <t>2025-05-06</t>
+    <t>2025-05-06 00:00:00</t>
   </si>
   <si>
     <t>AN-60-BM</t>
@@ -1268,7 +1268,7 @@
     <t>2008-12-10</t>
   </si>
   <si>
-    <t>2025-05-03</t>
+    <t>2025-05-03 00:00:00</t>
   </si>
   <si>
     <t>08-42-PC</t>
@@ -1283,7 +1283,7 @@
     <t>2000-02-27</t>
   </si>
   <si>
-    <t>2025-05-01</t>
+    <t>2025-05-01 00:00:00</t>
   </si>
   <si>
     <t>20-OP-48</t>
@@ -1301,7 +1301,7 @@
     <t>2014-04-01</t>
   </si>
   <si>
-    <t>2025-04-24</t>
+    <t>2025-04-24 00:00:00</t>
   </si>
   <si>
     <t>79-SR-45</t>
@@ -1316,7 +1316,7 @@
     <t>2017-03-01</t>
   </si>
   <si>
-    <t>2025-04-21</t>
+    <t>2025-04-21 00:00:00</t>
   </si>
   <si>
     <t>89-EJ-10</t>
@@ -1334,7 +1334,7 @@
     <t>2007-09-28</t>
   </si>
   <si>
-    <t>2025-04-15</t>
+    <t>2025-04-15 00:00:00</t>
   </si>
   <si>
     <t>44-JI-68</t>
@@ -1352,7 +1352,7 @@
     <t>2010-06-22</t>
   </si>
   <si>
-    <t>2025-04-14</t>
+    <t>2025-04-14 00:00:00</t>
   </si>
   <si>
     <t>AT-86-OU</t>
@@ -1370,7 +1370,7 @@
     <t>2017-09-20</t>
   </si>
   <si>
-    <t>2025-04-12</t>
+    <t>2025-04-12 00:00:00</t>
   </si>
   <si>
     <t>38-IU-96</t>
@@ -1397,7 +1397,7 @@
     <t>2010-01-31</t>
   </si>
   <si>
-    <t>2025-04-10</t>
+    <t>2025-04-10 00:00:00</t>
   </si>
   <si>
     <t>69-QT-14</t>
@@ -1415,7 +1415,7 @@
     <t>2016-01-15</t>
   </si>
   <si>
-    <t>2025-04-03</t>
+    <t>2025-04-03 00:00:00</t>
   </si>
   <si>
     <t>AN-87-HA</t>
@@ -1430,7 +1430,7 @@
     <t>2011-01-01</t>
   </si>
   <si>
-    <t>2025-03-29</t>
+    <t>2025-03-29 00:00:00</t>
   </si>
   <si>
     <t>AI-38-JD</t>
@@ -1445,7 +1445,7 @@
     <t>2021-07-20</t>
   </si>
   <si>
-    <t>2025-03-20</t>
+    <t>2025-03-20 00:00:00</t>
   </si>
   <si>
     <t>AF-92-BE</t>
@@ -1463,7 +1463,7 @@
     <t>2011-02-10</t>
   </si>
   <si>
-    <t>2025-03-19</t>
+    <t>2025-03-19 00:00:00</t>
   </si>
   <si>
     <t>65-TQ-94</t>
@@ -1484,7 +1484,7 @@
     <t>2011-01-11</t>
   </si>
   <si>
-    <t>2025-03-01</t>
+    <t>2025-03-01 00:00:00</t>
   </si>
   <si>
     <t>BL-11-ET</t>
@@ -1505,7 +1505,7 @@
     <t>2011-11-20</t>
   </si>
   <si>
-    <t>2025-02-28</t>
+    <t>2025-02-28 00:00:00</t>
   </si>
   <si>
     <t>BN-89-MR</t>
@@ -1520,7 +1520,7 @@
     <t>2017-03-30</t>
   </si>
   <si>
-    <t>2025-02-25</t>
+    <t>2025-02-25 00:00:00</t>
   </si>
   <si>
     <t>BM-29-BC</t>
@@ -1535,7 +1535,7 @@
     <t>2018-03-08</t>
   </si>
   <si>
-    <t>2025-02-20</t>
+    <t>2025-02-20 00:00:00</t>
   </si>
   <si>
     <t>BF-70-EM</t>
@@ -1556,7 +1556,7 @@
     <t>2018-11-13</t>
   </si>
   <si>
-    <t>2025-02-19</t>
+    <t>2025-02-19 00:00:00</t>
   </si>
   <si>
     <t>95-NB-65</t>
@@ -1571,7 +1571,7 @@
     <t>2012-07-06</t>
   </si>
   <si>
-    <t>2025-02-18</t>
+    <t>2025-02-18 00:00:00</t>
   </si>
   <si>
     <t>42-UF-14</t>
@@ -1586,7 +1586,7 @@
     <t>2013-11-29</t>
   </si>
   <si>
-    <t>2025-02-17</t>
+    <t>2025-02-17 00:00:00</t>
   </si>
   <si>
     <t>98-IQ-21</t>
@@ -1601,7 +1601,7 @@
     <t>2010-01-19</t>
   </si>
   <si>
-    <t>2025-02-15</t>
+    <t>2025-02-15 00:00:00</t>
   </si>
   <si>
     <t>71-LP-39</t>
@@ -1619,7 +1619,7 @@
     <t>2011-04-26</t>
   </si>
   <si>
-    <t>2025-02-12</t>
+    <t>2025-02-12 00:00:00</t>
   </si>
   <si>
     <t>BO-05-IJ</t>
@@ -1637,7 +1637,7 @@
     <t>2019-06-19</t>
   </si>
   <si>
-    <t>2025-02-07</t>
+    <t>2025-02-07 00:00:00</t>
   </si>
   <si>
     <t>20-DP-19</t>
@@ -1658,7 +1658,7 @@
     <t>Banco Primus</t>
   </si>
   <si>
-    <t>2025-02-01</t>
+    <t>2025-02-01 00:00:00</t>
   </si>
   <si>
     <t>33-QM-90</t>
@@ -1688,7 +1688,7 @@
     <t>2015-06-26</t>
   </si>
   <si>
-    <t>2025-01-17</t>
+    <t>2025-01-17 00:00:00</t>
   </si>
   <si>
     <t>71-RC-68</t>
@@ -1703,7 +1703,7 @@
     <t>2016-03-24</t>
   </si>
   <si>
-    <t>2025-01-14</t>
+    <t>2025-01-14 00:00:00</t>
   </si>
   <si>
     <t>66-GR-18</t>
@@ -1718,7 +1718,7 @@
     <t>2008-10-30</t>
   </si>
   <si>
-    <t>2025-01-10</t>
+    <t>2025-01-10 00:00:00</t>
   </si>
   <si>
     <t>24-HL-28</t>
@@ -1745,7 +1745,7 @@
     <t>2010-08-13</t>
   </si>
   <si>
-    <t>2024-12-26</t>
+    <t>2024-12-26 00:00:00</t>
   </si>
   <si>
     <t>BA-30-AS</t>
@@ -1763,7 +1763,7 @@
     <t>2019-01-07</t>
   </si>
   <si>
-    <t>2024-12-23</t>
+    <t>2024-12-23 00:00:00</t>
   </si>
   <si>
     <t>65-GF-36</t>
@@ -1778,7 +1778,7 @@
     <t>2008-07-28</t>
   </si>
   <si>
-    <t>2024-12-21</t>
+    <t>2024-12-21 00:00:00</t>
   </si>
   <si>
     <t>AT-33-PQ</t>
@@ -1793,7 +1793,7 @@
     <t>2017-03-27</t>
   </si>
   <si>
-    <t>2024-12-14</t>
+    <t>2024-12-14 00:00:00</t>
   </si>
   <si>
     <t>53-SZ-37</t>
@@ -1811,7 +1811,7 @@
     <t>2017-05-16</t>
   </si>
   <si>
-    <t>2024-12-02</t>
+    <t>2024-12-02 00:00:00</t>
   </si>
   <si>
     <t>17-RU-31</t>
@@ -1826,7 +1826,7 @@
     <t>2016-08-31</t>
   </si>
   <si>
-    <t>2024-11-22</t>
+    <t>2024-11-22 00:00:00</t>
   </si>
   <si>
     <t>91-IJ-62</t>
@@ -1841,7 +1841,7 @@
     <t>2009-11-16</t>
   </si>
   <si>
-    <t>2024-11-16</t>
+    <t>2024-11-16 00:00:00</t>
   </si>
   <si>
     <t>75-76-XO</t>
@@ -1853,7 +1853,7 @@
     <t>2004-06-15</t>
   </si>
   <si>
-    <t>2024-11-01</t>
+    <t>2024-11-01 00:00:00</t>
   </si>
   <si>
     <t>47-PX-91</t>
@@ -1868,7 +1868,7 @@
     <t>2015-05-26</t>
   </si>
   <si>
-    <t>2024-10-22</t>
+    <t>2024-10-22 00:00:00</t>
   </si>
   <si>
     <t>57-IF-50</t>
@@ -1883,7 +1883,7 @@
     <t>2009-09-30</t>
   </si>
   <si>
-    <t>2024-10-12</t>
+    <t>2024-10-12 00:00:00</t>
   </si>
   <si>
     <t>21-HH-88</t>
@@ -1913,7 +1913,7 @@
     <t>2017-02-27</t>
   </si>
   <si>
-    <t>2024-10-10</t>
+    <t>2024-10-10 00:00:00</t>
   </si>
   <si>
     <t>19-RM-49</t>
@@ -1949,7 +1949,7 @@
     <t>2013-10-06</t>
   </si>
   <si>
-    <t>2024-10-09</t>
+    <t>2024-10-09 00:00:00</t>
   </si>
   <si>
     <t>00-RH-57</t>
@@ -1967,7 +1967,7 @@
     <t>2016-05-03</t>
   </si>
   <si>
-    <t>2024-10-02</t>
+    <t>2024-10-02 00:00:00</t>
   </si>
   <si>
     <t>01-13-ZA</t>
@@ -1985,7 +1985,7 @@
     <t>2004-09-28</t>
   </si>
   <si>
-    <t>2024-09-20</t>
+    <t>2024-09-20 00:00:00</t>
   </si>
   <si>
     <t>60-II-64</t>
@@ -2009,7 +2009,7 @@
     <t>2014-05-23</t>
   </si>
   <si>
-    <t>2024-09-16</t>
+    <t>2024-09-16 00:00:00</t>
   </si>
   <si>
     <t>BD-14-DP</t>
@@ -2024,7 +2024,7 @@
     <t>2010-12-20</t>
   </si>
   <si>
-    <t>2024-09-12</t>
+    <t>2024-09-12 00:00:00</t>
   </si>
   <si>
     <t>61-00-PB</t>
@@ -2042,7 +2042,7 @@
     <t>2000-02-22</t>
   </si>
   <si>
-    <t>2024-09-04</t>
+    <t>2024-09-04 00:00:00</t>
   </si>
   <si>
     <t>53-LI-49</t>
@@ -2060,7 +2060,7 @@
     <t>2011-02-14</t>
   </si>
   <si>
-    <t>2024-08-31</t>
+    <t>2024-08-31 00:00:00</t>
   </si>
   <si>
     <t>BD-90-GM</t>
@@ -2072,7 +2072,7 @@
     <t>2017-08-31</t>
   </si>
   <si>
-    <t>2024-08-28</t>
+    <t>2024-08-28 00:00:00</t>
   </si>
   <si>
     <t>78-ET-31</t>
@@ -2090,7 +2090,7 @@
     <t>2007-11-29</t>
   </si>
   <si>
-    <t>2024-08-16</t>
+    <t>2024-08-16 00:00:00</t>
   </si>
   <si>
     <t>AB-83-ZA</t>
@@ -2108,7 +2108,7 @@
     <t>2020-07-27</t>
   </si>
   <si>
-    <t>2024-08-08</t>
+    <t>2024-08-08 00:00:00</t>
   </si>
   <si>
     <t>AC-44-JS</t>
@@ -2147,7 +2147,7 @@
     <t>1989-02-23</t>
   </si>
   <si>
-    <t>2024-08-07</t>
+    <t>2024-08-07 00:00:00</t>
   </si>
   <si>
     <t>37-PI-83</t>
@@ -2159,7 +2159,7 @@
     <t>Patricia Alexandra Abrantes Jesus</t>
   </si>
   <si>
-    <t>2024-07-26</t>
+    <t>2024-07-26 00:00:00</t>
   </si>
   <si>
     <t>20-SO-41</t>
@@ -2177,7 +2177,7 @@
     <t>2014-12-10</t>
   </si>
   <si>
-    <t>2024-07-20</t>
+    <t>2024-07-20 00:00:00</t>
   </si>
   <si>
     <t>93-SQ-88</t>
@@ -2195,7 +2195,7 @@
     <t>BiCredit</t>
   </si>
   <si>
-    <t>2024-07-18</t>
+    <t>2024-07-18 00:00:00</t>
   </si>
   <si>
     <t>AJ-89-JC</t>
@@ -2228,7 +2228,7 @@
     <t>2015-11-19</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>2024-07-15 00:00:00</t>
   </si>
   <si>
     <t>AO-23-XH</t>
@@ -2243,7 +2243,7 @@
     <t>2012-07-20</t>
   </si>
   <si>
-    <t>2024-07-12</t>
+    <t>2024-07-12 00:00:00</t>
   </si>
   <si>
     <t>21-96-LD</t>
@@ -2255,7 +2255,7 @@
     <t>1998-05-14</t>
   </si>
   <si>
-    <t>2024-06-20</t>
+    <t>2024-06-20 00:00:00</t>
   </si>
   <si>
     <t>53-TD-18</t>
@@ -2267,7 +2267,7 @@
     <t>Diana Isabel Pereira Venâncio</t>
   </si>
   <si>
-    <t>2024-06-19</t>
+    <t>2024-06-19 00:00:00</t>
   </si>
   <si>
     <t>70-28-RM</t>
@@ -2285,7 +2285,7 @@
     <t>2001-04-17</t>
   </si>
   <si>
-    <t>2024-05-18</t>
+    <t>2024-05-18 00:00:00</t>
   </si>
   <si>
     <t>26-73-TR</t>
@@ -2297,7 +2297,7 @@
     <t>2002-06-19</t>
   </si>
   <si>
-    <t>2024-05-11</t>
+    <t>2024-05-11 00:00:00</t>
   </si>
   <si>
     <t>94-GL-86</t>
@@ -2309,7 +2309,7 @@
     <t>2008-06-03</t>
   </si>
   <si>
-    <t>2024-04-20</t>
+    <t>2024-04-20 00:00:00</t>
   </si>
   <si>
     <t>08-TN-51</t>
@@ -2324,7 +2324,7 @@
     <t>Inês Maria de Sousa Martins</t>
   </si>
   <si>
-    <t>2024-04-15</t>
+    <t>2024-04-15 00:00:00</t>
   </si>
   <si>
     <t>BI-01-RZ</t>
@@ -2339,7 +2339,7 @@
     <t>2019-01-24</t>
   </si>
   <si>
-    <t>2024-04-08</t>
+    <t>2024-04-08 00:00:00</t>
   </si>
   <si>
     <t>37-OI-83</t>
@@ -2354,7 +2354,7 @@
     <t>2014-01-31</t>
   </si>
   <si>
-    <t>2024-04-05</t>
+    <t>2024-04-05 00:00:00</t>
   </si>
   <si>
     <t>34-XI-48</t>
@@ -2369,7 +2369,7 @@
     <t>2019-04-02</t>
   </si>
   <si>
-    <t>2024-03-23</t>
+    <t>2024-03-23 00:00:00</t>
   </si>
   <si>
     <t>12-17-XF</t>
@@ -2402,7 +2402,7 @@
     <t>2006-11-14</t>
   </si>
   <si>
-    <t>2024-03-09</t>
+    <t>2024-03-09 00:00:00</t>
   </si>
   <si>
     <t>39-DA-44</t>
@@ -2414,7 +2414,7 @@
     <t>2007-02-22</t>
   </si>
   <si>
-    <t>2024-02-19</t>
+    <t>2024-02-19 00:00:00</t>
   </si>
   <si>
     <t>04-57-ZA</t>
@@ -2426,7 +2426,7 @@
     <t>Yago Melo Rodrigues da Silva</t>
   </si>
   <si>
-    <t>2024-02-17</t>
+    <t>2024-02-17 00:00:00</t>
   </si>
   <si>
     <t>BH-63-AD</t>
@@ -2441,7 +2441,7 @@
     <t>2016-06-24</t>
   </si>
   <si>
-    <t>2024-02-12</t>
+    <t>2024-02-12 00:00:00</t>
   </si>
   <si>
     <t>AU-12-XG</t>
@@ -2456,7 +2456,7 @@
     <t>2017-01-09</t>
   </si>
   <si>
-    <t>2024-02-03</t>
+    <t>2024-02-03 00:00:00</t>
   </si>
   <si>
     <t>BF-88-DI</t>
@@ -2471,7 +2471,7 @@
     <t>2014-10-21</t>
   </si>
   <si>
-    <t>2024-01-16</t>
+    <t>2024-01-16 00:00:00</t>
   </si>
   <si>
     <t>C4</t>
@@ -2483,7 +2483,7 @@
     <t>vera</t>
   </si>
   <si>
-    <t>2024-01-06</t>
+    <t>2024-01-06 00:00:00</t>
   </si>
   <si>
     <t>16-MC-23</t>
@@ -2513,7 +2513,7 @@
     <t>2013-01-09</t>
   </si>
   <si>
-    <t>2024-01-04</t>
+    <t>2024-01-04 00:00:00</t>
   </si>
   <si>
     <t>36-UV-89</t>
@@ -2528,7 +2528,7 @@
     <t>2018-06-05</t>
   </si>
   <si>
-    <t>2023-12-08</t>
+    <t>2023-12-08 00:00:00</t>
   </si>
   <si>
     <t>AS-96-QQ</t>
@@ -2540,7 +2540,7 @@
     <t>2014-10-09</t>
   </si>
   <si>
-    <t>2023-11-27</t>
+    <t>2023-11-27 00:00:00</t>
   </si>
   <si>
     <t>04-91-ZJ</t>
@@ -2555,7 +2555,7 @@
     <t>2005-01-03</t>
   </si>
   <si>
-    <t>2023-11-07</t>
+    <t>2023-11-07 00:00:00</t>
   </si>
   <si>
     <t>58-NT-37</t>
@@ -2573,7 +2573,7 @@
     <t>2013-06-07</t>
   </si>
   <si>
-    <t>2023-10-19</t>
+    <t>2023-10-19 00:00:00</t>
   </si>
   <si>
     <t>27-01-BG</t>
@@ -2594,7 +2594,7 @@
     <t>1992-11-13</t>
   </si>
   <si>
-    <t>2023-10-04</t>
+    <t>2023-10-04 00:00:00</t>
   </si>
   <si>
     <t>17-TZ-07</t>
@@ -2609,7 +2609,7 @@
     <t>2011-06-24</t>
   </si>
   <si>
-    <t>2023-09-13</t>
+    <t>2023-09-13 00:00:00</t>
   </si>
   <si>
     <t>63-28-NX</t>
@@ -2624,7 +2624,7 @@
     <t>1999-08-03</t>
   </si>
   <si>
-    <t>2023-09-08</t>
+    <t>2023-09-08 00:00:00</t>
   </si>
   <si>
     <t>06-GX-53</t>
@@ -2633,7 +2633,7 @@
     <t>Sónia Sofia Casanova da Silva</t>
   </si>
   <si>
-    <t>2023-08-24</t>
+    <t>2023-08-24 00:00:00</t>
   </si>
   <si>
     <t>63-15-VX</t>
@@ -2648,7 +2648,7 @@
     <t>2004-01-12</t>
   </si>
   <si>
-    <t>2023-08-23</t>
+    <t>2023-08-23 00:00:00</t>
   </si>
   <si>
     <t>66-LT-95</t>
@@ -2660,7 +2660,7 @@
     <t>2011-06-07</t>
   </si>
   <si>
-    <t>2023-07-06</t>
+    <t>2023-07-06 00:00:00</t>
   </si>
   <si>
     <t>63-MQ-62</t>
@@ -2681,7 +2681,7 @@
     <t>2009-06-26</t>
   </si>
   <si>
-    <t>2023-06-22</t>
+    <t>2023-06-22 00:00:00</t>
   </si>
   <si>
     <t>66-21-OL</t>
@@ -2696,7 +2696,7 @@
     <t>1999-11-17</t>
   </si>
   <si>
-    <t>2023-06-21</t>
+    <t>2023-06-21 00:00:00</t>
   </si>
   <si>
     <t>56-52-NR</t>
@@ -2714,7 +2714,7 @@
     <t>1999-07-15</t>
   </si>
   <si>
-    <t>2023-06-19</t>
+    <t>2023-06-19 00:00:00</t>
   </si>
   <si>
     <t>78-OS-04</t>
@@ -2726,7 +2726,7 @@
     <t>2014-06-02</t>
   </si>
   <si>
-    <t>2023-06-13</t>
+    <t>2023-06-13 00:00:00</t>
   </si>
   <si>
     <t>38-QS-84</t>
@@ -2738,7 +2738,7 @@
     <t>2010-10-14</t>
   </si>
   <si>
-    <t>2023-06-09</t>
+    <t>2023-06-09 00:00:00</t>
   </si>
   <si>
     <t>AS-92-MN</t>
@@ -2750,7 +2750,7 @@
     <t>Pedro Miguel Marques Antunes</t>
   </si>
   <si>
-    <t>2023-06-06</t>
+    <t>2023-06-06 00:00:00</t>
   </si>
   <si>
     <t>27-QJ-00</t>
@@ -2768,7 +2768,7 @@
     <t>2015-09-24</t>
   </si>
   <si>
-    <t>2023-05-31</t>
+    <t>2023-05-31 00:00:00</t>
   </si>
   <si>
     <t>41-AT-20</t>
@@ -2783,7 +2783,7 @@
     <t>2005-10-26</t>
   </si>
   <si>
-    <t>2023-04-28</t>
+    <t>2023-04-28 00:00:00</t>
   </si>
   <si>
     <t>20-05-SP</t>
@@ -2801,7 +2801,7 @@
     <t>2001-11-15</t>
   </si>
   <si>
-    <t>2023-03-11</t>
+    <t>2023-03-11 00:00:00</t>
   </si>
   <si>
     <t>34-NL-05</t>
@@ -2813,7 +2813,7 @@
     <t>2013-01-02</t>
   </si>
   <si>
-    <t>2023-03-08</t>
+    <t>2023-03-08 00:00:00</t>
   </si>
   <si>
     <t>19-ZQ-12</t>
@@ -2822,7 +2822,7 @@
     <t>Adriana dos Santos Alves</t>
   </si>
   <si>
-    <t>2023-01-20</t>
+    <t>2023-01-20 00:00:00</t>
   </si>
   <si>
     <t>64-50-TP</t>
@@ -2837,7 +2837,7 @@
     <t>2002-06-03</t>
   </si>
   <si>
-    <t>2022-12-27</t>
+    <t>2022-12-27 00:00:00</t>
   </si>
   <si>
     <t>05-SH-80</t>
@@ -2855,7 +2855,7 @@
     <t>2016-12-23</t>
   </si>
   <si>
-    <t>2022-12-03</t>
+    <t>2022-12-03 00:00:00</t>
   </si>
   <si>
     <t>A4 Avant</t>
@@ -2867,7 +2867,7 @@
     <t>Ricardo Filipe Catalão Pinho</t>
   </si>
   <si>
-    <t>2022-12-02</t>
+    <t>2022-12-02 00:00:00</t>
   </si>
   <si>
     <t>50-OQ-93</t>
@@ -2882,7 +2882,7 @@
     <t>2013-04-30</t>
   </si>
   <si>
-    <t>2022-11-29</t>
+    <t>2022-11-29 00:00:00</t>
   </si>
   <si>
     <t>BG-94-24</t>
@@ -2900,7 +2900,7 @@
     <t>1968-06-20</t>
   </si>
   <si>
-    <t>2022-11-26</t>
+    <t>2022-11-26 00:00:00</t>
   </si>
   <si>
     <t>24-LQ-97</t>
@@ -2915,7 +2915,7 @@
     <t>2011-04-29</t>
   </si>
   <si>
-    <t>2022-10-20</t>
+    <t>2022-10-20 00:00:00</t>
   </si>
   <si>
     <t>30-52-VP</t>
@@ -2930,7 +2930,7 @@
     <t>2003-10-21</t>
   </si>
   <si>
-    <t>2022-10-15</t>
+    <t>2022-10-15 00:00:00</t>
   </si>
   <si>
     <t>Jorge Manuel da Conceição Mendes</t>
@@ -2939,7 +2939,7 @@
     <t>2008-04-11</t>
   </si>
   <si>
-    <t>2022-10-03</t>
+    <t>2022-10-03 00:00:00</t>
   </si>
   <si>
     <t>40-SB-26</t>
@@ -2954,7 +2954,7 @@
     <t>Pedro Nuno Bessa Vieira</t>
   </si>
   <si>
-    <t>2022-10-02</t>
+    <t>2022-10-02 00:00:00</t>
   </si>
   <si>
     <t>AR-35-EX</t>
@@ -2969,7 +2969,7 @@
     <t>2016-05-26</t>
   </si>
   <si>
-    <t>2022-09-10</t>
+    <t>2022-09-10 00:00:00</t>
   </si>
   <si>
     <t>2.0 TSI 200cv</t>
@@ -2981,7 +2981,7 @@
     <t>2010-12-15</t>
   </si>
   <si>
-    <t>2022-08-24</t>
+    <t>2022-08-24 00:00:00</t>
   </si>
   <si>
     <t>48-IL-53</t>
@@ -2993,7 +2993,7 @@
     <t>2009-11-23</t>
   </si>
   <si>
-    <t>2022-08-03</t>
+    <t>2022-08-03 00:00:00</t>
   </si>
   <si>
     <t>ForTwo Coupé</t>
@@ -3011,7 +3011,7 @@
     <t>2006-06-20</t>
   </si>
   <si>
-    <t>2022-08-01</t>
+    <t>2022-08-01 00:00:00</t>
   </si>
   <si>
     <t>95-XA-85</t>
@@ -3029,7 +3029,7 @@
     <t>2019-02-05</t>
   </si>
   <si>
-    <t>2022-07-29</t>
+    <t>2022-07-29 00:00:00</t>
   </si>
   <si>
     <t>22-34-PS</t>
@@ -3059,7 +3059,7 @@
     <t>2011-03-30</t>
   </si>
   <si>
-    <t>2022-07-22</t>
+    <t>2022-07-22 00:00:00</t>
   </si>
   <si>
     <t>86-CM-55</t>
@@ -3077,7 +3077,7 @@
     <t>2006-11-30</t>
   </si>
   <si>
-    <t>2022-07-04</t>
+    <t>2022-07-04 00:00:00</t>
   </si>
   <si>
     <t>94-LZ-21</t>
@@ -3092,7 +3092,7 @@
     <t>2011-07-27</t>
   </si>
   <si>
-    <t>2022-06-21</t>
+    <t>2022-06-21 00:00:00</t>
   </si>
   <si>
     <t>50-RZ-51</t>
@@ -3107,7 +3107,7 @@
     <t>2016-10-11</t>
   </si>
   <si>
-    <t>2022-05-19</t>
+    <t>2022-05-19 00:00:00</t>
   </si>
   <si>
     <t>54-CI-50</t>
@@ -3122,7 +3122,7 @@
     <t>2006-11-02</t>
   </si>
   <si>
-    <t>2022-05-18</t>
+    <t>2022-05-18 00:00:00</t>
   </si>
   <si>
     <t>39-37-HJ</t>
@@ -3137,7 +3137,7 @@
     <t>1996-10-15</t>
   </si>
   <si>
-    <t>2022-03-17</t>
+    <t>2022-03-17 00:00:00</t>
   </si>
   <si>
     <t>1.4 TSI GTI</t>
@@ -3149,7 +3149,7 @@
     <t>2010-09-15</t>
   </si>
   <si>
-    <t>2022-03-14</t>
+    <t>2022-03-14 00:00:00</t>
   </si>
   <si>
     <t>Palio Weekend</t>
@@ -3158,7 +3158,7 @@
     <t>Carlos Augusto da Silva Sousa</t>
   </si>
   <si>
-    <t>2022-03-03</t>
+    <t>2022-03-03 00:00:00</t>
   </si>
   <si>
     <t>82-42-VG</t>
@@ -3176,7 +3176,7 @@
     <t>2003-07-18</t>
   </si>
   <si>
-    <t>2022-02-08</t>
+    <t>2022-02-08 00:00:00</t>
   </si>
   <si>
     <t>17-FU-66</t>
@@ -3191,7 +3191,7 @@
     <t>2008-05-28</t>
   </si>
   <si>
-    <t>2022-02-04</t>
+    <t>2022-02-04 00:00:00</t>
   </si>
   <si>
     <t>24-IL-55</t>
@@ -3203,7 +3203,7 @@
     <t>2009-11-19</t>
   </si>
   <si>
-    <t>2022-01-22</t>
+    <t>2022-01-22 00:00:00</t>
   </si>
   <si>
     <t>91-MH-35</t>
@@ -3218,7 +3218,7 @@
     <t>2011-09-29</t>
   </si>
   <si>
-    <t>2022-01-12</t>
+    <t>2022-01-12 00:00:00</t>
   </si>
   <si>
     <t>48-PI-59</t>
@@ -3233,7 +3233,7 @@
     <t>2011-01-28</t>
   </si>
   <si>
-    <t>2022-01-09</t>
+    <t>2022-01-09 00:00:00</t>
   </si>
   <si>
     <t>96-52-QQ</t>
@@ -3248,7 +3248,7 @@
     <t>Maria Helena de Matos Ferreira</t>
   </si>
   <si>
-    <t>2021-12-31</t>
+    <t>2021-12-31 00:00:00</t>
   </si>
   <si>
     <t>57-VV-05</t>
@@ -3266,7 +3266,7 @@
     <t>2018-12-28</t>
   </si>
   <si>
-    <t>2021-12-29</t>
+    <t>2021-12-29 00:00:00</t>
   </si>
   <si>
     <t>93-53-NZ</t>
@@ -3281,7 +3281,7 @@
     <t>1999-08-16</t>
   </si>
   <si>
-    <t>2021-12-20</t>
+    <t>2021-12-20 00:00:00</t>
   </si>
   <si>
     <t>20-HZ-13</t>
@@ -3299,7 +3299,7 @@
     <t>2009-07-17</t>
   </si>
   <si>
-    <t>2021-12-18</t>
+    <t>2021-12-18 00:00:00</t>
   </si>
   <si>
     <t>24-AV-99</t>
@@ -3314,7 +3314,7 @@
     <t>2005-11-16</t>
   </si>
   <si>
-    <t>2021-12-04</t>
+    <t>2021-12-04 00:00:00</t>
   </si>
   <si>
     <t>08-PU-36</t>
@@ -3326,7 +3326,7 @@
     <t>2010-07-15</t>
   </si>
   <si>
-    <t>2021-11-20</t>
+    <t>2021-11-20 00:00:00</t>
   </si>
   <si>
     <t>14-OD-52</t>
@@ -3344,7 +3344,7 @@
     <t>2013-10-31</t>
   </si>
   <si>
-    <t>2021-11-09</t>
+    <t>2021-11-09 00:00:00</t>
   </si>
   <si>
     <t>AI-72-XB</t>
@@ -3356,7 +3356,7 @@
     <t>2013-07-31</t>
   </si>
   <si>
-    <t>2021-10-30</t>
+    <t>2021-10-30 00:00:00</t>
   </si>
   <si>
     <t>12-NI-97</t>
@@ -3368,7 +3368,7 @@
     <t>Silvia Cristina Jesus Correia</t>
   </si>
   <si>
-    <t>2021-10-21</t>
+    <t>2021-10-21 00:00:00</t>
   </si>
   <si>
     <t>51-TI-45</t>
@@ -3386,7 +3386,7 @@
     <t>2009-06-02</t>
   </si>
   <si>
-    <t>2021-10-12</t>
+    <t>2021-10-12 00:00:00</t>
   </si>
   <si>
     <t>59-UC-56</t>
@@ -3413,7 +3413,7 @@
     <t>2012-06-28</t>
   </si>
   <si>
-    <t>2021-09-27</t>
+    <t>2021-09-27 00:00:00</t>
   </si>
   <si>
     <t>89-HA-85</t>
@@ -3425,7 +3425,7 @@
     <t>2008-12-23</t>
   </si>
   <si>
-    <t>2021-09-24</t>
+    <t>2021-09-24 00:00:00</t>
   </si>
   <si>
     <t>S</t>
@@ -3434,7 +3434,7 @@
     <t>Jackilina Duarte Trindade Soares</t>
   </si>
   <si>
-    <t>2021-09-10</t>
+    <t>2021-09-10 00:00:00</t>
   </si>
   <si>
     <t>51-XE-09</t>
@@ -3452,7 +3452,7 @@
     <t>2016-01-19</t>
   </si>
   <si>
-    <t>2021-09-02</t>
+    <t>2021-09-02 00:00:00</t>
   </si>
   <si>
     <t>37-CP-01</t>
@@ -3482,7 +3482,7 @@
     <t>2018-04-26</t>
   </si>
   <si>
-    <t>2021-08-07</t>
+    <t>2021-08-07 00:00:00</t>
   </si>
   <si>
     <t>01-NV-22</t>
@@ -3494,7 +3494,7 @@
     <t>2013-07-04</t>
   </si>
   <si>
-    <t>2021-08-04</t>
+    <t>2021-08-04 00:00:00</t>
   </si>
   <si>
     <t>56-43-XH</t>
@@ -3509,7 +3509,7 @@
     <t>2004-04-15</t>
   </si>
   <si>
-    <t>2021-07-23</t>
+    <t>2021-07-23 00:00:00</t>
   </si>
   <si>
     <t>53-IR-59</t>
@@ -3524,7 +3524,7 @@
     <t>2010-01-26</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-07-16 00:00:00</t>
   </si>
   <si>
     <t>38-ZB-62</t>
@@ -3539,7 +3539,7 @@
     <t>2009-09-09</t>
   </si>
   <si>
-    <t>2021-06-26</t>
+    <t>2021-06-26 00:00:00</t>
   </si>
   <si>
     <t>Iraci da Silva</t>
@@ -3557,7 +3557,7 @@
     <t>1999-06-25</t>
   </si>
   <si>
-    <t>2021-06-18</t>
+    <t>2021-06-18 00:00:00</t>
   </si>
   <si>
     <t>09-ZZ-59</t>
@@ -3575,13 +3575,16 @@
     <t>Andre Filipe Ramos Moreira</t>
   </si>
   <si>
+    <t>2021-06-02 00:00:00</t>
+  </si>
+  <si>
     <t>JCW</t>
   </si>
   <si>
     <t>Filipa do Nascimento Antunes</t>
   </si>
   <si>
-    <t>2021-05-29</t>
+    <t>2021-05-29 00:00:00</t>
   </si>
   <si>
     <t>91-RF-38</t>
@@ -3593,7 +3596,7 @@
     <t>2016-04-27</t>
   </si>
   <si>
-    <t>2021-05-21</t>
+    <t>2021-05-21 00:00:00</t>
   </si>
   <si>
     <t>50-GO-82</t>
@@ -3608,7 +3611,7 @@
     <t>2008-10-02</t>
   </si>
   <si>
-    <t>2021-04-29</t>
+    <t>2021-04-29 00:00:00</t>
   </si>
   <si>
     <t>21-QC-11</t>
@@ -3623,7 +3626,7 @@
     <t>2015-06-29</t>
   </si>
   <si>
-    <t>2021-04-26</t>
+    <t>2021-04-26 00:00:00</t>
   </si>
   <si>
     <t>36-HI-56</t>
@@ -3638,7 +3641,7 @@
     <t>2009-03-02</t>
   </si>
   <si>
-    <t>2021-04-09</t>
+    <t>2021-04-09 00:00:00</t>
   </si>
   <si>
     <t>85-40-XU</t>
@@ -3650,7 +3653,7 @@
     <t>2004-08-12</t>
   </si>
   <si>
-    <t>2021-04-01</t>
+    <t>2021-04-01 00:00:00</t>
   </si>
   <si>
     <t>RCZ</t>
@@ -3665,7 +3668,7 @@
     <t>2012-08-17</t>
   </si>
   <si>
-    <t>2021-03-19</t>
+    <t>2021-03-19 00:00:00</t>
   </si>
   <si>
     <t>44-LG-36</t>
@@ -3683,7 +3686,7 @@
     <t>2011-01-12</t>
   </si>
   <si>
-    <t>2021-03-18</t>
+    <t>2021-03-18 00:00:00</t>
   </si>
   <si>
     <t>2.0 TFSI Coupe</t>
@@ -3695,7 +3698,7 @@
     <t>2008-02-14</t>
   </si>
   <si>
-    <t>2021-02-15</t>
+    <t>2021-02-15 00:00:00</t>
   </si>
   <si>
     <t>70-68-XN</t>
@@ -3710,7 +3713,7 @@
     <t>2004-06-02</t>
   </si>
   <si>
-    <t>2021-02-04</t>
+    <t>2021-02-04 00:00:00</t>
   </si>
   <si>
     <t>51-95-SR</t>
@@ -3719,7 +3722,7 @@
     <t>João Filipe dos Santos Gomes</t>
   </si>
   <si>
-    <t>2021-02-01</t>
+    <t>2021-02-01 00:00:00</t>
   </si>
   <si>
     <t>59-JP-09</t>
@@ -3734,13 +3737,13 @@
     <t>2010-08-12</t>
   </si>
   <si>
-    <t>2021-01-29</t>
+    <t>2021-01-29 00:00:00</t>
   </si>
   <si>
     <t>David Mauro Dias</t>
   </si>
   <si>
-    <t>2021-01-23</t>
+    <t>2021-01-23 00:00:00</t>
   </si>
   <si>
     <t>44-HT-17</t>
@@ -3755,7 +3758,7 @@
     <t>2009-06-09</t>
   </si>
   <si>
-    <t>2020-12-24</t>
+    <t>2020-12-24 00:00:00</t>
   </si>
   <si>
     <t>52-HH-75</t>
@@ -3764,7 +3767,7 @@
     <t>Helena Isabel Campos Sousa Neves</t>
   </si>
   <si>
-    <t>2020-12-23</t>
+    <t>2020-12-23 00:00:00</t>
   </si>
   <si>
     <t>89-97-ZF</t>
@@ -3776,7 +3779,7 @@
     <t>2004-11-30</t>
   </si>
   <si>
-    <t>2020-12-12</t>
+    <t>2020-12-12 00:00:00</t>
   </si>
   <si>
     <t>AE-15-FB</t>
@@ -3788,7 +3791,7 @@
     <t>2011-09-06</t>
   </si>
   <si>
-    <t>2020-12-04</t>
+    <t>2020-12-04 00:00:00</t>
   </si>
   <si>
     <t>42-OT-04</t>
@@ -3803,7 +3806,7 @@
     <t>2014-06-11</t>
   </si>
   <si>
-    <t>2020-11-16</t>
+    <t>2020-11-16 00:00:00</t>
   </si>
   <si>
     <t>Vintage</t>
@@ -3812,7 +3815,7 @@
     <t>Sandra Patrícia da Silva Machado</t>
   </si>
   <si>
-    <t>2020-11-03</t>
+    <t>2020-11-03 00:00:00</t>
   </si>
   <si>
     <t>AD-56-NP</t>
@@ -3824,7 +3827,7 @@
     <t>2008-10-15</t>
   </si>
   <si>
-    <t>2020-10-29</t>
+    <t>2020-10-29 00:00:00</t>
   </si>
   <si>
     <t>37-02-LG</t>
@@ -3836,7 +3839,7 @@
     <t>1998-06-04</t>
   </si>
   <si>
-    <t>2020-10-09</t>
+    <t>2020-10-09 00:00:00</t>
   </si>
   <si>
     <t>14-UJ-76</t>
@@ -3854,7 +3857,7 @@
     <t>2009-09-29</t>
   </si>
   <si>
-    <t>2020-09-29</t>
+    <t>2020-09-29 00:00:00</t>
   </si>
   <si>
     <t>47-26-OA</t>
@@ -3863,13 +3866,13 @@
     <t>Armando Quimirégua</t>
   </si>
   <si>
-    <t>2020-09-26</t>
+    <t>2020-09-26 00:00:00</t>
   </si>
   <si>
     <t>Ednei Freitas</t>
   </si>
   <si>
-    <t>2020-09-23</t>
+    <t>2020-09-23 00:00:00</t>
   </si>
   <si>
     <t>98-NG-00</t>
@@ -3884,7 +3887,7 @@
     <t>2001-12-12</t>
   </si>
   <si>
-    <t>2020-09-12</t>
+    <t>2020-09-12 00:00:00</t>
   </si>
   <si>
     <t>46-75-UG</t>
@@ -3899,7 +3902,7 @@
     <t>2002-10-31</t>
   </si>
   <si>
-    <t>2020-09-04</t>
+    <t>2020-09-04 00:00:00</t>
   </si>
   <si>
     <t>AC-99-FS</t>
@@ -3914,7 +3917,7 @@
     <t>2011-09-12</t>
   </si>
   <si>
-    <t>2020-09-02</t>
+    <t>2020-09-02 00:00:00</t>
   </si>
   <si>
     <t>30-NH-33</t>
@@ -3929,7 +3932,7 @@
     <t>2012-10-30</t>
   </si>
   <si>
-    <t>2020-08-15</t>
+    <t>2020-08-15 00:00:00</t>
   </si>
   <si>
     <t>48-LN-16</t>
@@ -3947,7 +3950,7 @@
     <t>2007-06-27</t>
   </si>
   <si>
-    <t>2020-08-13</t>
+    <t>2020-08-13 00:00:00</t>
   </si>
   <si>
     <t>75-DI-34</t>
@@ -3962,7 +3965,7 @@
     <t>2007-04-24</t>
   </si>
   <si>
-    <t>2020-08-05</t>
+    <t>2020-08-05 00:00:00</t>
   </si>
   <si>
     <t>72-GQ-08</t>
@@ -3974,7 +3977,7 @@
     <t>2008-10-23</t>
   </si>
   <si>
-    <t>2020-08-01</t>
+    <t>2020-08-01 00:00:00</t>
   </si>
   <si>
     <t>23-JF-06</t>
@@ -3989,7 +3992,7 @@
     <t>2010-05-26</t>
   </si>
   <si>
-    <t>2020-07-30</t>
+    <t>2020-07-30 00:00:00</t>
   </si>
   <si>
     <t>14-PB-69</t>
@@ -4004,7 +4007,7 @@
     <t>2014-08-29</t>
   </si>
   <si>
-    <t>2020-07-23</t>
+    <t>2020-07-23 00:00:00</t>
   </si>
   <si>
     <t>79-FO-15</t>
@@ -4019,7 +4022,7 @@
     <t>2008-04-18</t>
   </si>
   <si>
-    <t>2020-07-21</t>
+    <t>2020-07-21 00:00:00</t>
   </si>
   <si>
     <t>67-JR-31</t>
@@ -4031,7 +4034,7 @@
     <t>2010-09-09</t>
   </si>
   <si>
-    <t>2020-06-20</t>
+    <t>2020-06-20 00:00:00</t>
   </si>
   <si>
     <t>61-74-QV</t>
@@ -4043,7 +4046,7 @@
     <t>2000-12-27</t>
   </si>
   <si>
-    <t>2020-06-03</t>
+    <t>2020-06-03 00:00:00</t>
   </si>
   <si>
     <t>09-08-UI</t>
@@ -4070,7 +4073,7 @@
     <t>2005-03-30</t>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>2020-06-01 00:00:00</t>
   </si>
   <si>
     <t>59-00-SH</t>
@@ -4082,7 +4085,7 @@
     <t>2001-09-13</t>
   </si>
   <si>
-    <t>2020-05-27</t>
+    <t>2020-05-27 00:00:00</t>
   </si>
   <si>
     <t>1.7 CDTI Active</t>
@@ -4094,7 +4097,7 @@
     <t>2014-04-16</t>
   </si>
   <si>
-    <t>2020-05-23</t>
+    <t>2020-05-23 00:00:00</t>
   </si>
   <si>
     <t>IR-82-58</t>
@@ -4109,7 +4112,7 @@
     <t>1980-12-26</t>
   </si>
   <si>
-    <t>2020-05-22</t>
+    <t>2020-05-22 00:00:00</t>
   </si>
   <si>
     <t>32-FH-99</t>
@@ -4124,7 +4127,7 @@
     <t>2008-02-01</t>
   </si>
   <si>
-    <t>2020-05-20</t>
+    <t>2020-05-20 00:00:00</t>
   </si>
   <si>
     <t>64-30-LM</t>
@@ -4136,7 +4139,7 @@
     <t>1998-07-14</t>
   </si>
   <si>
-    <t>2020-05-13</t>
+    <t>2020-05-13 00:00:00</t>
   </si>
   <si>
     <t>39-16-UN</t>
@@ -4160,7 +4163,7 @@
     <t>2007-03-12</t>
   </si>
   <si>
-    <t>2020-04-30</t>
+    <t>2020-04-30 00:00:00</t>
   </si>
   <si>
     <t>34-29-UV</t>
@@ -4172,7 +4175,7 @@
     <t>2003-04-10</t>
   </si>
   <si>
-    <t>2020-04-21</t>
+    <t>2020-04-21 00:00:00</t>
   </si>
   <si>
     <t>31-ES-22</t>
@@ -4187,7 +4190,7 @@
     <t>2003-04-28</t>
   </si>
   <si>
-    <t>2020-04-06</t>
+    <t>2020-04-06 00:00:00</t>
   </si>
   <si>
     <t>74-42-IR</t>
@@ -4205,13 +4208,13 @@
     <t>1997-07-22</t>
   </si>
   <si>
-    <t>2020-03-07</t>
+    <t>2020-03-07 00:00:00</t>
   </si>
   <si>
     <t>Paulo Jorge Mendes Araújo</t>
   </si>
   <si>
-    <t>2020-03-06</t>
+    <t>2020-03-06 00:00:00</t>
   </si>
   <si>
     <t>AA-11-AG</t>
@@ -4226,7 +4229,7 @@
     <t>2008-11-27</t>
   </si>
   <si>
-    <t>2020-02-29</t>
+    <t>2020-02-29 00:00:00</t>
   </si>
   <si>
     <t>05-CX-68</t>
@@ -4253,7 +4256,7 @@
     <t>2007-01-19</t>
   </si>
   <si>
-    <t>2020-02-24</t>
+    <t>2020-02-24 00:00:00</t>
   </si>
   <si>
     <t>12-LM-25</t>
@@ -4268,7 +4271,7 @@
     <t>2011-03-17</t>
   </si>
   <si>
-    <t>2020-02-21</t>
+    <t>2020-02-21 00:00:00</t>
   </si>
   <si>
     <t>21-24-MG</t>
@@ -4286,7 +4289,7 @@
     <t>1998-11-23</t>
   </si>
   <si>
-    <t>2020-02-19</t>
+    <t>2020-02-19 00:00:00</t>
   </si>
   <si>
     <t>25-NA-50</t>
@@ -4298,7 +4301,7 @@
     <t>2001-05-03</t>
   </si>
   <si>
-    <t>2020-02-15</t>
+    <t>2020-02-15 00:00:00</t>
   </si>
   <si>
     <t>1.2 Confort</t>
@@ -4307,7 +4310,7 @@
     <t>Marcia Andreia Cardoso da Cunha</t>
   </si>
   <si>
-    <t>2020-02-14</t>
+    <t>2020-02-14 00:00:00</t>
   </si>
   <si>
     <t>38-LL-85</t>
@@ -4322,7 +4325,7 @@
     <t>2011-03-04</t>
   </si>
   <si>
-    <t>2020-02-10</t>
+    <t>2020-02-10 00:00:00</t>
   </si>
   <si>
     <t>47-13-SP</t>
@@ -4334,7 +4337,7 @@
     <t>2001-11-19</t>
   </si>
   <si>
-    <t>2020-02-02</t>
+    <t>2020-02-02 00:00:00</t>
   </si>
   <si>
     <t>Jorge Diogo Ferraz Rodrigues</t>
@@ -4343,7 +4346,7 @@
     <t>2014-10-01</t>
   </si>
   <si>
-    <t>2020-02-01</t>
+    <t>2020-02-01 00:00:00</t>
   </si>
   <si>
     <t>50-ZE-17</t>
@@ -4376,7 +4379,7 @@
     <t>2008-01-31</t>
   </si>
   <si>
-    <t>2020-01-25</t>
+    <t>2020-01-25 00:00:00</t>
   </si>
   <si>
     <t>33-JA-50</t>
@@ -4388,7 +4391,7 @@
     <t>2005-03-07</t>
   </si>
   <si>
-    <t>2020-01-17</t>
+    <t>2020-01-17 00:00:00</t>
   </si>
   <si>
     <t>39-95-ND</t>
@@ -4403,7 +4406,7 @@
     <t>1999-04-07</t>
   </si>
   <si>
-    <t>2020-01-16</t>
+    <t>2020-01-16 00:00:00</t>
   </si>
   <si>
     <t>39-ZZ-39</t>
@@ -4421,7 +4424,7 @@
     <t>2009-08-20</t>
   </si>
   <si>
-    <t>2020-01-13</t>
+    <t>2020-01-13 00:00:00</t>
   </si>
   <si>
     <t>43-JC-26</t>
@@ -4436,7 +4439,7 @@
     <t>2010-04-28</t>
   </si>
   <si>
-    <t>2020-01-10</t>
+    <t>2020-01-10 00:00:00</t>
   </si>
   <si>
     <t>31-ZS-56</t>
@@ -4448,7 +4451,7 @@
     <t>2008-03-14</t>
   </si>
   <si>
-    <t>2019-12-31</t>
+    <t>2019-12-31 00:00:00</t>
   </si>
   <si>
     <t>53-82-JM</t>
@@ -4463,7 +4466,7 @@
     <t>1998-01-21</t>
   </si>
   <si>
-    <t>2019-12-30</t>
+    <t>2019-12-30 00:00:00</t>
   </si>
   <si>
     <t>24-FR-79</t>
@@ -4475,7 +4478,7 @@
     <t>2004-09-16</t>
   </si>
   <si>
-    <t>2019-12-28</t>
+    <t>2019-12-28 00:00:00</t>
   </si>
   <si>
     <t>19-OP-71</t>
@@ -4487,7 +4490,7 @@
     <t>2014-04-15</t>
   </si>
   <si>
-    <t>2019-12-21</t>
+    <t>2019-12-21 00:00:00</t>
   </si>
   <si>
     <t>03-66-VZ</t>
@@ -4514,7 +4517,7 @@
     <t>2006-01-12</t>
   </si>
   <si>
-    <t>2019-12-16</t>
+    <t>2019-12-16 00:00:00</t>
   </si>
   <si>
     <t>12-44-UM</t>
@@ -4538,7 +4541,7 @@
     <t>2001-12-28</t>
   </si>
   <si>
-    <t>2019-12-10</t>
+    <t>2019-12-10 00:00:00</t>
   </si>
   <si>
     <t>37-44-LU</t>
@@ -4550,7 +4553,7 @@
     <t>1998-08-18</t>
   </si>
   <si>
-    <t>2019-12-02</t>
+    <t>2019-12-02 00:00:00</t>
   </si>
   <si>
     <t>33-EQ-23</t>
@@ -4562,7 +4565,7 @@
     <t>2007-11-12</t>
   </si>
   <si>
-    <t>2019-11-30</t>
+    <t>2019-11-30 00:00:00</t>
   </si>
   <si>
     <t>13-DQ-23</t>
@@ -4586,7 +4589,7 @@
     <t>2004-07-13</t>
   </si>
   <si>
-    <t>2019-11-22</t>
+    <t>2019-11-22 00:00:00</t>
   </si>
   <si>
     <t>10-72-SI</t>
@@ -4604,7 +4607,7 @@
     <t>2001-09-19</t>
   </si>
   <si>
-    <t>2019-11-09</t>
+    <t>2019-11-09 00:00:00</t>
   </si>
   <si>
     <t>49-39-OX</t>
@@ -4625,7 +4628,7 @@
     <t>2000-01-31</t>
   </si>
   <si>
-    <t>2019-11-07</t>
+    <t>2019-11-07 00:00:00</t>
   </si>
   <si>
     <t>94-DP-32</t>
@@ -4640,7 +4643,7 @@
     <t>2007-05-31</t>
   </si>
   <si>
-    <t>2019-10-12</t>
+    <t>2019-10-12 00:00:00</t>
   </si>
   <si>
     <t>00-ZH-40</t>
@@ -4655,7 +4658,7 @@
     <t>2013-08-30</t>
   </si>
   <si>
-    <t>2019-10-01</t>
+    <t>2019-10-01 00:00:00</t>
   </si>
   <si>
     <t>66-ZH-09</t>
@@ -5023,7 +5026,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="23" bestFit="true" customWidth="true" style="0"/>
@@ -5202,22 +5205,22 @@
         <v>14732.0</v>
       </c>
       <c r="N3">
-        <v>15900.83</v>
+        <v>16123.04</v>
       </c>
       <c r="O3">
-        <v>5699.17</v>
+        <v>5476.96</v>
       </c>
       <c r="P3">
         <v>1284.26</v>
       </c>
       <c r="Q3">
-        <v>188.64</v>
+        <v>230.19</v>
       </c>
       <c r="R3">
-        <v>1095.62</v>
+        <v>1054.07</v>
       </c>
       <c r="S3">
-        <v>4603.55</v>
+        <v>4422.89</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -5258,22 +5261,22 @@
         <v>5000.0</v>
       </c>
       <c r="N4">
-        <v>5135.3</v>
+        <v>5183.89</v>
       </c>
       <c r="O4">
-        <v>7164.7</v>
+        <v>7116.11</v>
       </c>
       <c r="P4">
         <v>1365.04</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>9.09</v>
       </c>
       <c r="R4">
-        <v>1365.04</v>
+        <v>1355.95</v>
       </c>
       <c r="S4">
-        <v>5799.66</v>
+        <v>5760.16</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -5494,22 +5497,22 @@
         <v>6700.0</v>
       </c>
       <c r="N8">
-        <v>6929.8</v>
+        <v>7357.84</v>
       </c>
       <c r="O8">
-        <v>4970.2</v>
+        <v>4542.16</v>
       </c>
       <c r="P8">
         <v>972.36</v>
       </c>
       <c r="Q8">
-        <v>33.62</v>
+        <v>113.66</v>
       </c>
       <c r="R8">
-        <v>938.74</v>
+        <v>858.7</v>
       </c>
       <c r="S8">
-        <v>4031.46</v>
+        <v>3683.46</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -5606,22 +5609,22 @@
         <v>9620.0</v>
       </c>
       <c r="N10">
-        <v>13433.71</v>
+        <v>13592.0</v>
       </c>
       <c r="O10">
-        <v>3466.29</v>
+        <v>3308.0</v>
       </c>
       <c r="P10">
         <v>1361.3</v>
       </c>
       <c r="Q10">
-        <v>633.47</v>
+        <v>663.07</v>
       </c>
       <c r="R10">
-        <v>727.83</v>
+        <v>698.23</v>
       </c>
       <c r="S10">
-        <v>2738.46</v>
+        <v>2609.77</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -6370,22 +6373,22 @@
         <v>9500.0</v>
       </c>
       <c r="N23">
-        <v>10474.24</v>
+        <v>11154.84</v>
       </c>
       <c r="O23">
-        <v>1425.76</v>
+        <v>745.16</v>
       </c>
       <c r="P23">
         <v>448.78</v>
       </c>
       <c r="Q23">
-        <v>182.17</v>
+        <v>309.44</v>
       </c>
       <c r="R23">
-        <v>266.61</v>
+        <v>139.34</v>
       </c>
       <c r="S23">
-        <v>1159.15</v>
+        <v>605.82</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -12916,22 +12919,22 @@
         <v>15302.0</v>
       </c>
       <c r="N137">
-        <v>20117.69</v>
+        <v>20289.23</v>
       </c>
       <c r="O137">
-        <v>4382.31</v>
+        <v>4210.77</v>
       </c>
       <c r="P137">
         <v>1719.95</v>
       </c>
       <c r="Q137">
-        <v>80.5</v>
+        <v>112.58</v>
       </c>
       <c r="R137">
-        <v>1639.45</v>
+        <v>1607.37</v>
       </c>
       <c r="S137">
-        <v>2742.86</v>
+        <v>2603.4</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -17812,7 +17815,7 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" t="s">
-        <v>143</v>
+        <v>1186</v>
       </c>
       <c r="C227" t="s">
         <v>412</v>
@@ -17821,10 +17824,10 @@
         <v>170</v>
       </c>
       <c r="E227" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F227" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G227" t="s">
         <v>58</v>
@@ -17862,10 +17865,10 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B228" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C228" t="s">
         <v>40</v>
@@ -17877,13 +17880,13 @@
         <v>792</v>
       </c>
       <c r="F228" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G228" t="s">
         <v>67</v>
       </c>
       <c r="H228" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="I228">
         <v>10900.0</v>
@@ -17918,10 +17921,10 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B229" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C229" t="s">
         <v>242</v>
@@ -17930,16 +17933,16 @@
         <v>993</v>
       </c>
       <c r="E229" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F229" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G229" t="s">
         <v>67</v>
       </c>
       <c r="H229" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I229">
         <v>5500.0</v>
@@ -17974,10 +17977,10 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B230" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C230" t="s">
         <v>92</v>
@@ -17986,13 +17989,13 @@
         <v>93</v>
       </c>
       <c r="E230" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F230" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H230" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="I230">
         <v>11900.0</v>
@@ -18027,10 +18030,10 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B231" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C231" t="s">
         <v>324</v>
@@ -18039,13 +18042,13 @@
         <v>976</v>
       </c>
       <c r="E231" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F231" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H231" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="I231">
         <v>8900.0</v>
@@ -18080,10 +18083,10 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B232" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C232" t="s">
         <v>40</v>
@@ -18095,13 +18098,13 @@
         <v>792</v>
       </c>
       <c r="F232" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G232" t="s">
         <v>44</v>
       </c>
       <c r="H232" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="I232">
         <v>1500.0</v>
@@ -18136,25 +18139,25 @@
     </row>
     <row r="233" spans="1:21">
       <c r="A233" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C233" t="s">
         <v>105</v>
       </c>
       <c r="D233" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E233" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F233" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G233" t="s">
         <v>58</v>
       </c>
       <c r="H233" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I233">
         <v>15900.0</v>
@@ -18189,28 +18192,28 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B234" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C234" t="s">
         <v>98</v>
       </c>
       <c r="D234" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E234" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F234" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G234" t="s">
         <v>58</v>
       </c>
       <c r="H234" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="I234">
         <v>6900.0</v>
@@ -18245,7 +18248,7 @@
     </row>
     <row r="235" spans="1:21">
       <c r="A235" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C235" t="s">
         <v>23</v>
@@ -18254,16 +18257,16 @@
         <v>1049</v>
       </c>
       <c r="E235" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F235" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G235" t="s">
         <v>58</v>
       </c>
       <c r="H235" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="I235">
         <v>16400.0</v>
@@ -18304,10 +18307,10 @@
     </row>
     <row r="236" spans="1:21">
       <c r="A236" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B236" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C236" t="s">
         <v>242</v>
@@ -18316,16 +18319,16 @@
         <v>993</v>
       </c>
       <c r="E236" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F236" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G236" t="s">
         <v>58</v>
       </c>
       <c r="H236" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="I236">
         <v>2900.0</v>
@@ -18360,10 +18363,10 @@
     </row>
     <row r="237" spans="1:21">
       <c r="A237" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B237" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C237" t="s">
         <v>40</v>
@@ -18375,7 +18378,7 @@
         <v>968</v>
       </c>
       <c r="F237" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="I237">
         <v>600.0</v>
@@ -18410,10 +18413,10 @@
     </row>
     <row r="238" spans="1:21">
       <c r="A238" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B238" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C238" t="s">
         <v>348</v>
@@ -18422,16 +18425,16 @@
         <v>1105</v>
       </c>
       <c r="E238" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F238" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G238" t="s">
         <v>65</v>
       </c>
       <c r="H238" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="I238">
         <v>7400.0</v>
@@ -18466,7 +18469,7 @@
     </row>
     <row r="239" spans="1:21">
       <c r="A239" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C239" t="s">
         <v>23</v>
@@ -18478,7 +18481,7 @@
         <v>479</v>
       </c>
       <c r="F239" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G239" t="s">
         <v>58</v>
@@ -18519,10 +18522,10 @@
     </row>
     <row r="240" spans="1:21">
       <c r="A240" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B240" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C240" t="s">
         <v>40</v>
@@ -18531,16 +18534,16 @@
         <v>1119</v>
       </c>
       <c r="E240" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F240" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G240" t="s">
         <v>44</v>
       </c>
       <c r="H240" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I240">
         <v>5500.0</v>
@@ -18581,10 +18584,10 @@
     </row>
     <row r="241" spans="1:21">
       <c r="A241" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B241" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C241" t="s">
         <v>98</v>
@@ -18596,7 +18599,7 @@
         <v>1.3</v>
       </c>
       <c r="F241" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G241" t="s">
         <v>58</v>
@@ -18640,10 +18643,10 @@
     </row>
     <row r="242" spans="1:21">
       <c r="A242" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B242" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C242" t="s">
         <v>324</v>
@@ -18655,13 +18658,13 @@
         <v>1.6</v>
       </c>
       <c r="F242" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G242" t="s">
         <v>58</v>
       </c>
       <c r="H242" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="I242">
         <v>2800.0</v>
@@ -18696,10 +18699,10 @@
     </row>
     <row r="243" spans="1:21">
       <c r="A243" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B243" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C243" t="s">
         <v>23</v>
@@ -18708,16 +18711,16 @@
         <v>1049</v>
       </c>
       <c r="E243" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F243" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G243" t="s">
         <v>58</v>
       </c>
       <c r="H243" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="I243">
         <v>20900.0</v>
@@ -18752,10 +18755,10 @@
     </row>
     <row r="244" spans="1:21">
       <c r="A244" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B244" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C244" t="s">
         <v>54</v>
@@ -18764,16 +18767,16 @@
         <v>282</v>
       </c>
       <c r="E244" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F244" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G244" t="s">
         <v>58</v>
       </c>
       <c r="H244" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="I244">
         <v>11900.0</v>
@@ -18808,7 +18811,7 @@
     </row>
     <row r="245" spans="1:21">
       <c r="A245" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C245" t="s">
         <v>140</v>
@@ -18817,10 +18820,10 @@
         <v>500</v>
       </c>
       <c r="E245" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F245" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G245" t="s">
         <v>58</v>
@@ -18861,10 +18864,10 @@
     </row>
     <row r="246" spans="1:21">
       <c r="A246" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B246" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C246" t="s">
         <v>412</v>
@@ -18876,13 +18879,13 @@
         <v>1137</v>
       </c>
       <c r="F246" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G246" t="s">
         <v>58</v>
       </c>
       <c r="H246" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I246">
         <v>12900.0</v>
@@ -18923,10 +18926,10 @@
     </row>
     <row r="247" spans="1:21">
       <c r="A247" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B247" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C247" t="s">
         <v>324</v>
@@ -18938,10 +18941,10 @@
         <v>932</v>
       </c>
       <c r="F247" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H247" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="I247">
         <v>5900.0</v>
@@ -18976,28 +18979,28 @@
     </row>
     <row r="248" spans="1:21">
       <c r="A248" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B248" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C248" t="s">
         <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E248" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F248" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G248" t="s">
         <v>67</v>
       </c>
       <c r="H248" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="I248">
         <v>9600.0</v>
@@ -19032,10 +19035,10 @@
     </row>
     <row r="249" spans="1:21">
       <c r="A249" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B249" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C249" t="s">
         <v>98</v>
@@ -19047,7 +19050,7 @@
         <v>256</v>
       </c>
       <c r="F249" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I249">
         <v>550.0</v>
@@ -19079,7 +19082,7 @@
     </row>
     <row r="250" spans="1:21">
       <c r="A250" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B250" t="s">
         <v>1031</v>
@@ -19094,7 +19097,7 @@
         <v>963</v>
       </c>
       <c r="F250" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H250" t="s">
         <v>1034</v>
@@ -19132,10 +19135,10 @@
     </row>
     <row r="251" spans="1:21">
       <c r="A251" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B251" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C251" t="s">
         <v>242</v>
@@ -19144,13 +19147,13 @@
         <v>993</v>
       </c>
       <c r="E251" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F251" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H251" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="I251">
         <v>2400.0</v>
@@ -19182,10 +19185,10 @@
     </row>
     <row r="252" spans="1:21">
       <c r="A252" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B252" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C252" t="s">
         <v>23</v>
@@ -19194,13 +19197,13 @@
         <v>947</v>
       </c>
       <c r="E252" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F252" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H252" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="I252">
         <v>4000.0</v>
@@ -19235,10 +19238,10 @@
     </row>
     <row r="253" spans="1:21">
       <c r="A253" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B253" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C253" t="s">
         <v>54</v>
@@ -19247,13 +19250,13 @@
         <v>55</v>
       </c>
       <c r="E253" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F253" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H253" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="I253">
         <v>13900.0</v>
@@ -19285,28 +19288,28 @@
     </row>
     <row r="254" spans="1:21">
       <c r="A254" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B254" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C254" t="s">
         <v>98</v>
       </c>
       <c r="D254" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E254" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="F254" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G254" t="s">
         <v>58</v>
       </c>
       <c r="H254" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="I254">
         <v>8500.0</v>
@@ -19338,10 +19341,10 @@
     </row>
     <row r="255" spans="1:21">
       <c r="A255" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B255" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C255" t="s">
         <v>92</v>
@@ -19353,7 +19356,7 @@
         <v>525</v>
       </c>
       <c r="F255" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H255" t="s">
         <v>1013</v>
@@ -19388,10 +19391,10 @@
     </row>
     <row r="256" spans="1:21">
       <c r="A256" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B256" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C256" t="s">
         <v>309</v>
@@ -19400,13 +19403,13 @@
         <v>5</v>
       </c>
       <c r="F256" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G256" t="s">
         <v>44</v>
       </c>
       <c r="H256" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="I256">
         <v>6900.0</v>
@@ -19441,28 +19444,28 @@
     </row>
     <row r="257" spans="1:21">
       <c r="A257" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B257" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C257" t="s">
         <v>98</v>
       </c>
       <c r="D257" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E257" t="s">
         <v>963</v>
       </c>
       <c r="F257" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G257" t="s">
         <v>58</v>
       </c>
       <c r="H257" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="I257">
         <v>6900.0</v>
@@ -19497,28 +19500,28 @@
     </row>
     <row r="258" spans="1:21">
       <c r="A258" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B258" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C258" t="s">
         <v>98</v>
       </c>
       <c r="D258" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E258">
         <v>1.4</v>
       </c>
       <c r="F258" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G258" t="s">
         <v>58</v>
       </c>
       <c r="H258" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="I258">
         <v>6900.0</v>
@@ -19553,10 +19556,10 @@
     </row>
     <row r="259" spans="1:21">
       <c r="A259" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B259" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C259" t="s">
         <v>140</v>
@@ -19565,16 +19568,16 @@
         <v>624</v>
       </c>
       <c r="E259" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F259" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="G259" t="s">
         <v>65</v>
       </c>
       <c r="H259" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="I259">
         <v>9900.0</v>
@@ -19606,10 +19609,10 @@
     </row>
     <row r="260" spans="1:21">
       <c r="A260" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B260" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C260" t="s">
         <v>98</v>
@@ -19618,13 +19621,13 @@
         <v>594</v>
       </c>
       <c r="E260" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F260" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H260" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I260">
         <v>11250.0</v>
@@ -19659,10 +19662,10 @@
     </row>
     <row r="261" spans="1:21">
       <c r="A261" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B261" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C261" t="s">
         <v>54</v>
@@ -19671,16 +19674,16 @@
         <v>288</v>
       </c>
       <c r="E261" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="F261" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G261" t="s">
         <v>58</v>
       </c>
       <c r="H261" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="I261">
         <v>5900.0</v>
@@ -19715,25 +19718,25 @@
     </row>
     <row r="262" spans="1:21">
       <c r="A262" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B262" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C262" t="s">
         <v>98</v>
       </c>
       <c r="D262" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E262">
         <v>1.4</v>
       </c>
       <c r="F262" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H262" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="I262">
         <v>6900.0</v>
@@ -19768,10 +19771,10 @@
     </row>
     <row r="263" spans="1:21">
       <c r="A263" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B263" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C263" t="s">
         <v>85</v>
@@ -19780,13 +19783,13 @@
         <v>843</v>
       </c>
       <c r="F263" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G263" t="s">
         <v>58</v>
       </c>
       <c r="H263" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="I263">
         <v>7250.0</v>
@@ -19821,10 +19824,10 @@
     </row>
     <row r="264" spans="1:21">
       <c r="A264" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B264" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C264" t="s">
         <v>242</v>
@@ -19833,13 +19836,13 @@
         <v>993</v>
       </c>
       <c r="E264" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="F264" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H264" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="I264">
         <v>2900.0</v>
@@ -19874,10 +19877,10 @@
     </row>
     <row r="265" spans="1:21">
       <c r="A265" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B265" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C265" t="s">
         <v>40</v>
@@ -19886,16 +19889,16 @@
         <v>1055</v>
       </c>
       <c r="E265" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F265" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G265" t="s">
         <v>58</v>
       </c>
       <c r="H265" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I265">
         <v>2700.0</v>
@@ -19930,10 +19933,10 @@
     </row>
     <row r="266" spans="1:21">
       <c r="A266" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B266" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C266" t="s">
         <v>40</v>
@@ -19945,10 +19948,10 @@
         <v>866</v>
       </c>
       <c r="F266" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H266" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="I266">
         <v>2050.0</v>
@@ -19983,7 +19986,7 @@
     </row>
     <row r="267" spans="1:21">
       <c r="A267" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C267" t="s">
         <v>98</v>
@@ -19992,16 +19995,16 @@
         <v>375</v>
       </c>
       <c r="E267" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F267" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G267" t="s">
         <v>58</v>
       </c>
       <c r="H267" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="I267">
         <v>14900.0</v>
@@ -20036,28 +20039,28 @@
     </row>
     <row r="268" spans="1:21">
       <c r="A268" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B268" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
       </c>
       <c r="D268" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E268">
         <v>1.3</v>
       </c>
       <c r="F268" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G268" t="s">
         <v>65</v>
       </c>
       <c r="H268" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="I268">
         <v>1100.0</v>
@@ -20089,28 +20092,28 @@
     </row>
     <row r="269" spans="1:21">
       <c r="A269" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B269" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C269" t="s">
         <v>98</v>
       </c>
       <c r="D269" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E269" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="F269" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G269" t="s">
         <v>44</v>
       </c>
       <c r="H269" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="I269">
         <v>5900.0</v>
@@ -20145,10 +20148,10 @@
     </row>
     <row r="270" spans="1:21">
       <c r="A270" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B270" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C270" t="s">
         <v>92</v>
@@ -20160,10 +20163,10 @@
         <v>937</v>
       </c>
       <c r="F270" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H270" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="I270">
         <v>2500.0</v>
@@ -20198,10 +20201,10 @@
     </row>
     <row r="271" spans="1:21">
       <c r="A271" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B271" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C271" t="s">
         <v>23</v>
@@ -20210,13 +20213,13 @@
         <v>752</v>
       </c>
       <c r="F271" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G271" t="s">
         <v>44</v>
       </c>
       <c r="H271" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I271">
         <v>4900.0</v>
@@ -20251,28 +20254,28 @@
     </row>
     <row r="272" spans="1:21">
       <c r="A272" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B272" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C272" t="s">
         <v>98</v>
       </c>
       <c r="D272" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E272" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="F272" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G272" t="s">
         <v>58</v>
       </c>
       <c r="H272" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="I272">
         <v>4900.0</v>
@@ -20307,25 +20310,25 @@
     </row>
     <row r="273" spans="1:21">
       <c r="A273" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B273" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C273" t="s">
         <v>98</v>
       </c>
       <c r="D273" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E273">
         <v>1.2</v>
       </c>
       <c r="F273" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H273" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I273">
         <v>1900.0</v>
@@ -20360,10 +20363,10 @@
     </row>
     <row r="274" spans="1:21">
       <c r="A274" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B274" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C274" t="s">
         <v>242</v>
@@ -20372,16 +20375,16 @@
         <v>993</v>
       </c>
       <c r="E274" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="F274" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G274" t="s">
         <v>65</v>
       </c>
       <c r="H274" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="I274">
         <v>2500.0</v>
@@ -20416,25 +20419,25 @@
     </row>
     <row r="275" spans="1:21">
       <c r="A275" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B275" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C275" t="s">
         <v>117</v>
       </c>
       <c r="D275" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E275" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F275" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H275" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="I275">
         <v>4015.0</v>
@@ -20469,7 +20472,7 @@
     </row>
     <row r="276" spans="1:21">
       <c r="A276" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B276" t="s">
         <v>308</v>
@@ -20481,7 +20484,7 @@
         <v>5</v>
       </c>
       <c r="F276" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G276" t="s">
         <v>44</v>
@@ -20519,10 +20522,10 @@
     </row>
     <row r="277" spans="1:21">
       <c r="A277" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B277" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C277" t="s">
         <v>412</v>
@@ -20531,16 +20534,16 @@
         <v>170</v>
       </c>
       <c r="E277" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F277" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G277" t="s">
         <v>44</v>
       </c>
       <c r="H277" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="I277">
         <v>9900.0</v>
@@ -20575,10 +20578,10 @@
     </row>
     <row r="278" spans="1:21">
       <c r="A278" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B278" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C278" t="s">
         <v>105</v>
@@ -20587,13 +20590,13 @@
         <v>207</v>
       </c>
       <c r="E278" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F278" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H278" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I278">
         <v>5500.0</v>
@@ -20628,10 +20631,10 @@
     </row>
     <row r="279" spans="1:21">
       <c r="A279" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B279" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C279" t="s">
         <v>40</v>
@@ -20640,16 +20643,16 @@
         <v>441</v>
       </c>
       <c r="E279" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F279" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G279" t="s">
         <v>58</v>
       </c>
       <c r="H279" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="I279">
         <v>5500.0</v>
@@ -20684,10 +20687,10 @@
     </row>
     <row r="280" spans="1:21">
       <c r="A280" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B280" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C280" t="s">
         <v>140</v>
@@ -20696,16 +20699,16 @@
         <v>361</v>
       </c>
       <c r="E280" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F280" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G280" t="s">
         <v>58</v>
       </c>
       <c r="H280" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="I280">
         <v>5300.0</v>
@@ -20740,25 +20743,25 @@
     </row>
     <row r="281" spans="1:21">
       <c r="A281" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B281" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C281" t="s">
         <v>85</v>
       </c>
       <c r="D281" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E281" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="F281" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H281" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="I281">
         <v>1500.0</v>
@@ -20793,10 +20796,10 @@
     </row>
     <row r="282" spans="1:21">
       <c r="A282" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B282" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C282" t="s">
         <v>242</v>
@@ -20805,16 +20808,16 @@
         <v>993</v>
       </c>
       <c r="E282" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F282" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G282" t="s">
         <v>58</v>
       </c>
       <c r="H282" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="I282">
         <v>2400.0</v>
@@ -20849,7 +20852,7 @@
     </row>
     <row r="283" spans="1:21">
       <c r="A283" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B283" t="s">
         <v>796</v>
@@ -20861,10 +20864,10 @@
         <v>441</v>
       </c>
       <c r="E283" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F283" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G283" t="s">
         <v>58</v>
@@ -20905,10 +20908,10 @@
     </row>
     <row r="284" spans="1:21">
       <c r="A284" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B284" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C284" t="s">
         <v>40</v>
@@ -20917,16 +20920,16 @@
         <v>1119</v>
       </c>
       <c r="E284" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="F284" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G284" t="s">
         <v>44</v>
       </c>
       <c r="H284" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="I284">
         <v>5900.0</v>
@@ -20961,10 +20964,10 @@
     </row>
     <row r="285" spans="1:21">
       <c r="A285" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B285" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C285" t="s">
         <v>54</v>
@@ -20976,10 +20979,10 @@
         <v>1085</v>
       </c>
       <c r="F285" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H285" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="I285">
         <v>1900.0</v>
@@ -21011,7 +21014,7 @@
     </row>
     <row r="286" spans="1:21">
       <c r="A286" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C286" t="s">
         <v>412</v>
@@ -21023,13 +21026,13 @@
         <v>1137</v>
       </c>
       <c r="F286" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G286" t="s">
         <v>58</v>
       </c>
       <c r="H286" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I286">
         <v>12900.0</v>
@@ -21061,28 +21064,28 @@
     </row>
     <row r="287" spans="1:21">
       <c r="A287" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B287" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C287" t="s">
         <v>105</v>
       </c>
       <c r="D287" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="E287" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F287" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G287" t="s">
         <v>58</v>
       </c>
       <c r="H287" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="I287">
         <v>9500.0</v>
@@ -21117,28 +21120,28 @@
     </row>
     <row r="288" spans="1:21">
       <c r="A288" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B288" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C288" t="s">
         <v>48</v>
       </c>
       <c r="D288" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E288" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F288" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G288" t="s">
         <v>67</v>
       </c>
       <c r="H288" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="I288">
         <v>5500.0</v>
@@ -21173,10 +21176,10 @@
     </row>
     <row r="289" spans="1:21">
       <c r="A289" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B289" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C289" t="s">
         <v>242</v>
@@ -21185,16 +21188,16 @@
         <v>993</v>
       </c>
       <c r="E289" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F289" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G289" t="s">
         <v>58</v>
       </c>
       <c r="H289" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I289">
         <v>3500.0</v>
@@ -21229,25 +21232,25 @@
     </row>
     <row r="290" spans="1:21">
       <c r="A290" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B290" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C290" t="s">
         <v>677</v>
       </c>
       <c r="D290" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E290" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="F290" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H290" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I290">
         <v>1100.0</v>
@@ -21282,28 +21285,28 @@
     </row>
     <row r="291" spans="1:21">
       <c r="A291" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B291" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C291" t="s">
         <v>235</v>
       </c>
       <c r="D291" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E291" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="F291" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="G291" t="s">
         <v>44</v>
       </c>
       <c r="H291" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="I291">
         <v>5900.0</v>
@@ -21338,28 +21341,28 @@
     </row>
     <row r="292" spans="1:21">
       <c r="A292" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B292" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C292" t="s">
         <v>491</v>
       </c>
       <c r="D292" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E292" t="s">
         <v>1022</v>
       </c>
       <c r="F292" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G292" t="s">
         <v>58</v>
       </c>
       <c r="H292" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="I292">
         <v>7900.0</v>
@@ -21394,10 +21397,10 @@
     </row>
     <row r="293" spans="1:21">
       <c r="A293" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B293" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C293" t="s">
         <v>412</v>
@@ -21409,10 +21412,10 @@
         <v>1137</v>
       </c>
       <c r="F293" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H293" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="I293">
         <v>12900.0</v>
@@ -21447,28 +21450,28 @@
     </row>
     <row r="294" spans="1:21">
       <c r="A294" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B294" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C294" t="s">
         <v>85</v>
       </c>
       <c r="D294" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E294" t="s">
         <v>176</v>
       </c>
       <c r="F294" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G294" t="s">
         <v>65</v>
       </c>
       <c r="H294" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I294">
         <v>5900.0</v>
@@ -21500,10 +21503,10 @@
     </row>
     <row r="295" spans="1:21">
       <c r="A295" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B295" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C295" t="s">
         <v>127</v>
@@ -21515,13 +21518,13 @@
         <v>206</v>
       </c>
       <c r="F295" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G295" t="s">
         <v>67</v>
       </c>
       <c r="H295" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="I295">
         <v>9600.0</v>
@@ -21556,10 +21559,10 @@
     </row>
     <row r="296" spans="1:21">
       <c r="A296" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B296" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C296" t="s">
         <v>348</v>
@@ -21571,10 +21574,10 @@
         <v>1.0</v>
       </c>
       <c r="F296" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H296" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I296">
         <v>7000.0</v>
@@ -21609,25 +21612,25 @@
     </row>
     <row r="297" spans="1:21">
       <c r="A297" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B297" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C297" t="s">
         <v>491</v>
       </c>
       <c r="D297" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E297" t="s">
         <v>937</v>
       </c>
       <c r="F297" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H297" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I297">
         <v>4700.0</v>
@@ -21662,10 +21665,10 @@
     </row>
     <row r="298" spans="1:21">
       <c r="A298" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B298" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C298" t="s">
         <v>54</v>
@@ -21674,13 +21677,13 @@
         <v>282</v>
       </c>
       <c r="E298" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="F298" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H298" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="I298">
         <v>7900.0</v>
@@ -21715,25 +21718,25 @@
     </row>
     <row r="299" spans="1:21">
       <c r="A299" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B299" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C299" t="s">
         <v>98</v>
       </c>
       <c r="D299" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="E299" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="F299" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H299" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="I299">
         <v>2000.0</v>
@@ -21768,10 +21771,10 @@
     </row>
     <row r="300" spans="1:21">
       <c r="A300" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B300" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C300" t="s">
         <v>40</v>
@@ -21783,10 +21786,10 @@
         <v>792</v>
       </c>
       <c r="F300" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H300" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="I300">
         <v>1800.0</v>
@@ -21821,10 +21824,10 @@
     </row>
     <row r="301" spans="1:21">
       <c r="A301" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B301" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C301" t="s">
         <v>85</v>
@@ -21836,13 +21839,13 @@
         <v>256</v>
       </c>
       <c r="F301" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G301" t="s">
         <v>58</v>
       </c>
       <c r="H301" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="I301">
         <v>5900.0</v>
@@ -21877,10 +21880,10 @@
     </row>
     <row r="302" spans="1:21">
       <c r="A302" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B302" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C302" t="s">
         <v>242</v>
@@ -21889,16 +21892,16 @@
         <v>993</v>
       </c>
       <c r="E302" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F302" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G302" t="s">
         <v>58</v>
       </c>
       <c r="H302" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I302">
         <v>5900.0</v>
@@ -21933,25 +21936,25 @@
     </row>
     <row r="303" spans="1:21">
       <c r="A303" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B303" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C303" t="s">
         <v>98</v>
       </c>
       <c r="D303" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E303" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F303" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H303" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="I303">
         <v>5900.0</v>
@@ -21986,25 +21989,25 @@
     </row>
     <row r="304" spans="1:21">
       <c r="A304" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B304" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C304" t="s">
         <v>98</v>
       </c>
       <c r="D304" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E304" t="s">
         <v>963</v>
       </c>
       <c r="F304" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H304" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="I304">
         <v>3200.0</v>
@@ -22039,25 +22042,25 @@
     </row>
     <row r="305" spans="1:21">
       <c r="A305" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B305" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C305" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D305" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="E305">
         <v>1.3</v>
       </c>
       <c r="F305" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H305" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I305">
         <v>1500.0</v>
@@ -22092,28 +22095,28 @@
     </row>
     <row r="306" spans="1:21">
       <c r="A306" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B306" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C306" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D306" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="E306" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F306" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G306" t="s">
         <v>65</v>
       </c>
       <c r="H306" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="I306">
         <v>1900.0</v>
@@ -22148,10 +22151,10 @@
     </row>
     <row r="307" spans="1:21">
       <c r="A307" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B307" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C307" t="s">
         <v>23</v>
@@ -22160,13 +22163,13 @@
         <v>62</v>
       </c>
       <c r="E307" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F307" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H307" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="I307">
         <v>10900.0</v>
@@ -22201,10 +22204,10 @@
     </row>
     <row r="308" spans="1:21">
       <c r="A308" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B308" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C308" t="s">
         <v>48</v>
@@ -22213,13 +22216,13 @@
         <v>509</v>
       </c>
       <c r="E308" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="F308" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H308" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="I308">
         <v>11490.0</v>
@@ -22254,10 +22257,10 @@
     </row>
     <row r="309" spans="1:21">
       <c r="A309" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B309" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C309" t="s">
         <v>127</v>
@@ -22269,10 +22272,10 @@
         <v>810</v>
       </c>
       <c r="F309" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H309" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="I309">
         <v>16900.0</v>
